--- a/figuras/Time.xlsx
+++ b/figuras/Time.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario Angel\Desktop\Dissertacao_QtOm\figuras\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-560" yWindow="0" windowWidth="36380" windowHeight="20580" tabRatio="500"/>
+    <workbookView xWindow="-555" yWindow="0" windowWidth="36375" windowHeight="20580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,17 +65,17 @@
     <t>DIVINE</t>
   </si>
   <si>
-    <t>Associative Containers</t>
+    <t>Containers Associativos</t>
   </si>
   <si>
-    <t>Sequential Containers</t>
+    <t>Containers Sequenciais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,6 +337,14 @@
       <color rgb="FF00C802"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,10 +444,10 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Associative Containers</c:v>
+                    <c:v>Containers Associativos</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Sequential Containers</c:v>
+                    <c:v>Containers Sequenciais</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -462,16 +475,16 @@
                   <c:v>500.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>102.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>157.3</c:v>
+                  <c:v>157.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>191.0</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>14.5</c:v>
@@ -557,10 +570,10 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Associative Containers</c:v>
+                    <c:v>Containers Associativos</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Sequential Containers</c:v>
+                    <c:v>Containers Sequenciais</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -573,7 +586,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>37.13</c:v>
+                  <c:v>37.130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>406.4</c:v>
@@ -582,7 +595,7 @@
                   <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>132.6</c:v>
@@ -591,7 +604,7 @@
                   <c:v>23.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.4</c:v>
+                  <c:v>19.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1825.7</c:v>
@@ -600,7 +613,7 @@
                   <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,10 +696,10 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Associative Containers</c:v>
+                    <c:v>Containers Associativos</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Sequential Containers</c:v>
+                    <c:v>Containers Sequenciais</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -717,7 +730,7 @@
                   <c:v>1907.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2599.7</c:v>
+                  <c:v>2599.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3057.5</c:v>
@@ -726,7 +739,7 @@
                   <c:v>399.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>262.1</c:v>
+                  <c:v>262.10000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,16 +756,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2133233976"/>
-        <c:axId val="2134619416"/>
+        <c:axId val="-1106557664"/>
+        <c:axId val="-1106564736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2133233976"/>
+        <c:axId val="-1106557664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -766,10 +780,10 @@
                 <a:cs typeface="Palatino Linotype"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134619416"/>
+        <c:crossAx val="-1106564736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -777,11 +791,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134619416"/>
+        <c:axId val="-1106564736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3500.0"/>
-          <c:min val="0.0"/>
+          <c:max val="3500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -804,13 +818,13 @@
                 <a:cs typeface="Palatino Linotype"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133233976"/>
+        <c:crossAx val="-1106557664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="500.0"/>
+        <c:majorUnit val="500"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -827,7 +841,7 @@
               <a:cs typeface="Palatino Linotype"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -842,7 +856,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1207,13 +1221,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
